--- a/Training_Plan/AZ_900_Training_Schedule.xlsx
+++ b/Training_Plan/AZ_900_Training_Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10506"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A1C2513E-AB03-D244-BF73-0182D9CE675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE8B89-19B0-4F93-AD1C-DD11D4A884F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Schedule" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>WEEK OF</t>
   </si>
@@ -85,24 +85,9 @@
     <t>Break</t>
   </si>
   <si>
-    <t>Section 1: Understand Cloud Concepts</t>
-  </si>
-  <si>
-    <t>Complete Section 1</t>
-  </si>
-  <si>
-    <t>Review Section 1</t>
-  </si>
-  <si>
     <t>Plan Section 2</t>
   </si>
   <si>
-    <t>Section 2: Azure Core Services</t>
-  </si>
-  <si>
-    <t>Complete and Review Section 2</t>
-  </si>
-  <si>
     <t>Complete and Review Section 3</t>
   </si>
   <si>
@@ -112,13 +97,43 @@
     <t>TAKE EXAM!</t>
   </si>
   <si>
-    <t>Section 3: Security, Compliance, Privacy and Trust</t>
-  </si>
-  <si>
-    <t>Section 4: Azure Pricing, SLAs, and LifeCycle Management</t>
-  </si>
-  <si>
-    <t>Complete and Review Section 4</t>
+    <t>Section 1: Describe cloud computing</t>
+  </si>
+  <si>
+    <t>Section 1: Describe the benefits of using cloud services</t>
+  </si>
+  <si>
+    <t>Section 1: Describe cloud service types</t>
+  </si>
+  <si>
+    <t>Complete and Review Section 1</t>
+  </si>
+  <si>
+    <t>Section 2: Describe the core architectural components of Azure</t>
+  </si>
+  <si>
+    <t>Section 2: Describe Azure compute and networking services</t>
+  </si>
+  <si>
+    <t>Section 2: Describe Azure storage services</t>
+  </si>
+  <si>
+    <t>Section 2: Describe Azure identity, access, and security</t>
+  </si>
+  <si>
+    <t>Section 3: Describe cost management in Azure</t>
+  </si>
+  <si>
+    <t>Section 3: Describe features and tools in Azure for governance and compliance</t>
+  </si>
+  <si>
+    <t>Section 3: Describe features and tools for managing and deploying Azure resources</t>
+  </si>
+  <si>
+    <t>Section 3: Describe monitoring tools in Azure</t>
+  </si>
+  <si>
+    <t>Complete and Review Section 2 and Plan Section 3</t>
   </si>
 </sst>
 </file>
@@ -211,15 +226,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
@@ -227,14 +239,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -677,7 +689,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -797,13 +809,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssignmentSchedule" displayName="AssignmentSchedule" ref="B4:H9" totalsRowShown="0">
   <autoFilter ref="B4:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mon" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tue" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wed" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thu" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fri" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sat" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sun" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mon" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tue" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wed" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thu" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fri" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sat" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1024,18 +1036,17 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1047,152 +1058,138 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <f ca="1">TODAY()</f>
-        <v>43981</v>
+    <row r="3" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>25</v>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
+      <c r="H9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1218,23 +1215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -1445,25 +1425,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC6343C-F36B-40EB-96A8-FA92C0DDB45F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D479C4-B787-4D03-AA18-08513BB01B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7267C9C-32F0-4330-B38E-6358074ACC29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1480,4 +1459,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D479C4-B787-4D03-AA18-08513BB01B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC6343C-F36B-40EB-96A8-FA92C0DDB45F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>